--- a/Assignment1/TestDesign_LeThiHoa_final.xlsx
+++ b/Assignment1/TestDesign_LeThiHoa_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoale\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/082299998084efa7/Máy tính/Auto_NashTech/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C0491-01EF-4872-ABD2-9DD4A543E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{291C0491-01EF-4872-ABD2-9DD4A543E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0137FD64-7E22-4488-B910-BD116613556D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="D79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="D80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Passed</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>1.3 Check display of Discounted price</t>
+  </si>
+  <si>
+    <t>Verify calculated discount price</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -807,6 +810,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -858,7 +876,7 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -973,33 +991,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1019,6 +1010,34 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="background" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1557,10 +1576,10 @@
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X120"/>
+  <dimension ref="A1:X121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -1577,10 +1596,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="14.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1589,13 +1608,13 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1604,9 +1623,9 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1617,11 +1636,11 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1632,11 +1651,11 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1647,9 +1666,9 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1660,11 +1679,11 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1676,11 +1695,11 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="57">
         <v>44846</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:24" s="11" customFormat="1">
@@ -1767,11 +1786,11 @@
       <c r="A16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" s="18" customFormat="1" ht="38.25">
@@ -1801,11 +1820,11 @@
     </row>
     <row r="18" spans="1:9" s="18" customFormat="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -1844,7 +1863,7 @@
         <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="24"/>
@@ -1871,7 +1890,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" s="28" customFormat="1" ht="25.5" outlineLevel="1">
+    <row r="23" spans="1:9" s="28" customFormat="1" outlineLevel="1">
       <c r="A23" s="24">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -2012,7 +2031,7 @@
       <c r="H31" s="42"/>
       <c r="I31" s="39"/>
     </row>
-    <row r="32" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+    <row r="32" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A32" s="24">
         <f ca="1">IF(OFFSET(A32,-1,0)="",OFFSET(A32,-2,0)+1,OFFSET(A32,-1,0)+1)</f>
         <v>12</v>
@@ -2030,10 +2049,10 @@
     </row>
     <row r="33" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A33" s="24">
-        <f t="shared" ref="A33:A72" ca="1" si="1">IF(OFFSET(A33,-1,0)="",OFFSET(A33,-2,0)+1,OFFSET(A33,-1,0)+1)</f>
+        <f t="shared" ref="A33:A73" ca="1" si="1">IF(OFFSET(A33,-1,0)="",OFFSET(A33,-2,0)+1,OFFSET(A33,-1,0)+1)</f>
         <v>13</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="24"/>
@@ -2188,34 +2207,34 @@
       <c r="H42" s="24"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" s="43" customFormat="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="41" t="s">
+    <row r="43" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
+      <c r="A43" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" s="43" customFormat="1">
+      <c r="A44" s="51"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
-      <c r="A44" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="2"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A45" s="24">
@@ -2223,7 +2242,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="26"/>
@@ -2239,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="26"/>
@@ -2255,7 +2274,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="26"/>
@@ -2265,55 +2284,55 @@
       <c r="H47" s="24"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="47" t="s">
+    <row r="48" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
+      <c r="A48" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="1:9" s="45" customFormat="1" ht="14.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="43"/>
-    </row>
-    <row r="50" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
-      <c r="A50" s="24">
+      <c r="D50" s="41"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="43"/>
+    </row>
+    <row r="51" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
+      <c r="A51" s="24">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B51" s="38" t="s">
         <v>25</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A51" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="25"/>
@@ -2323,13 +2342,13 @@
       <c r="H51" s="24"/>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
+    <row r="52" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A52" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="25"/>
@@ -2342,10 +2361,10 @@
     <row r="53" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A53" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="25"/>
@@ -2358,11 +2377,12 @@
     <row r="54" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A54" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C54" s="24"/>
       <c r="D54" s="25"/>
       <c r="E54" s="26"/>
       <c r="F54" s="24"/>
@@ -2373,10 +2393,10 @@
     <row r="55" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A55" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="26"/>
@@ -2388,12 +2408,12 @@
     <row r="56" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A56" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="26"/>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
@@ -2403,10 +2423,10 @@
     <row r="57" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
       <c r="A57" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="26"/>
@@ -2415,87 +2435,86 @@
       <c r="H57" s="24"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9" s="45" customFormat="1" ht="14.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41" t="s">
+    <row r="58" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
+      <c r="A58" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="43"/>
-    </row>
-    <row r="59" spans="1:9" s="35" customFormat="1" ht="14.25">
-      <c r="A59" s="24">
+      <c r="D59" s="41"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="43"/>
+    </row>
+    <row r="60" spans="1:9" s="35" customFormat="1" ht="14.25">
+      <c r="A60" s="24">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B60" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="58"/>
-    </row>
-    <row r="60" spans="1:9" s="35" customFormat="1" ht="25.5">
-      <c r="A60" s="24">
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="49"/>
+    </row>
+    <row r="61" spans="1:9" s="35" customFormat="1" ht="25.5">
+      <c r="A61" s="24">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B61" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="58"/>
-    </row>
-    <row r="61" spans="1:9" s="45" customFormat="1" ht="14.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="49"/>
+    </row>
+    <row r="62" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="43"/>
-    </row>
-    <row r="62" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
-      <c r="A62" s="24">
+      <c r="D62" s="41"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="43"/>
+    </row>
+    <row r="63" spans="1:9" s="31" customFormat="1" ht="14.25" outlineLevel="1">
+      <c r="A63" s="24">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B63" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="34"/>
-    </row>
-    <row r="63" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A63" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="25"/>
@@ -2508,10 +2527,10 @@
     <row r="64" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A64" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="25"/>
@@ -2524,13 +2543,13 @@
     <row r="65" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A65" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="24"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="26"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
@@ -2540,10 +2559,10 @@
     <row r="66" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A66" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="30"/>
@@ -2556,10 +2575,10 @@
     <row r="67" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A67" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="30"/>
@@ -2572,10 +2591,10 @@
     <row r="68" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A68" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="30"/>
@@ -2588,10 +2607,10 @@
     <row r="69" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A69" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="30"/>
@@ -2604,56 +2623,63 @@
     <row r="70" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A70" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="24"/>
-      <c r="D70" s="26"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="26"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" s="31" customFormat="1" ht="25.5">
+    <row r="71" spans="1:9" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A71" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A72" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="B73" s="56"/>
-    </row>
-    <row r="74" spans="1:9" s="35" customFormat="1" ht="14.25"/>
-    <row r="75" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="73" spans="1:9" s="31" customFormat="1" ht="25.5">
+      <c r="A73" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="B74" s="47"/>
+    </row>
+    <row r="75" spans="1:9" s="35" customFormat="1" ht="14.25"/>
     <row r="76" spans="1:9" s="31" customFormat="1" ht="14.25"/>
-    <row r="77" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="34"/>
-    </row>
+    <row r="77" spans="1:9" s="31" customFormat="1" ht="14.25"/>
     <row r="78" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A78" s="24"/>
       <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -2668,7 +2694,15 @@
       <c r="F79" s="24"/>
       <c r="G79" s="34"/>
     </row>
-    <row r="80" spans="1:9" s="31" customFormat="1" ht="14.25"/>
+    <row r="80" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="34"/>
+    </row>
     <row r="81" s="31" customFormat="1" ht="14.25"/>
     <row r="82" s="31" customFormat="1" ht="14.25"/>
     <row r="83" s="31" customFormat="1" ht="14.25"/>
@@ -2700,38 +2734,39 @@
     <row r="109" s="31" customFormat="1" ht="14.25"/>
     <row r="110" s="31" customFormat="1" ht="14.25"/>
     <row r="111" s="31" customFormat="1" ht="14.25"/>
-    <row r="112" s="31" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="113" s="31" customFormat="1" ht="14.25"/>
+    <row r="112" s="31" customFormat="1" ht="14.25"/>
+    <row r="113" s="31" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="114" s="31" customFormat="1" ht="14.25"/>
-    <row r="115" s="31" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="116" s="31" customFormat="1" ht="14.25"/>
+    <row r="115" s="31" customFormat="1" ht="14.25"/>
+    <row r="116" s="31" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="117" s="31" customFormat="1" ht="14.25"/>
     <row r="118" s="31" customFormat="1" ht="14.25"/>
     <row r="119" s="31" customFormat="1" ht="14.25"/>
     <row r="120" s="31" customFormat="1" ht="14.25"/>
+    <row r="121" s="31" customFormat="1" ht="14.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H19 F31:H31 F43:H43" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F121:H178" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H19 F31:H31 F44:H44" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F122:H179" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D77:F79 F20:H30 F32:H42 F44:H76" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D78:F80 F20:H30 F32:H43 F45:H77" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -2742,15 +2777,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -2915,6 +2941,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2922,14 +2957,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2948,6 +2975,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
